--- a/reports_pdf/brasil/risk-pt/Cases/24-08-2020_brasil_report_EPG.xlsx
+++ b/reports_pdf/brasil/risk-pt/Cases/24-08-2020_brasil_report_EPG.xlsx
@@ -29864,7 +29864,7 @@
         </is>
       </c>
       <c r="D1639" t="n">
-        <v>518.5307516747441</v>
+        <v>525.6089043688139</v>
       </c>
     </row>
     <row r="1640">
@@ -75728,7 +75728,7 @@
         </is>
       </c>
       <c r="D4187" t="n">
-        <v>680.4721878426662</v>
+        <v>749.0448891547983</v>
       </c>
     </row>
     <row r="4188">
@@ -92108,7 +92108,7 @@
         </is>
       </c>
       <c r="D5097" t="n">
-        <v>259.1277123656984</v>
+        <v>259.5707758968507</v>
       </c>
     </row>
   </sheetData>
